--- a/DB/data/recipeDB_JY.xlsx
+++ b/DB/data/recipeDB_JY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\you\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work2\2st Project_1T\1T_Github\hello01\DB\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B08A062-8DFC-44F5-8C91-E3DBE1EF13F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559D202F-0B3C-45B0-A755-38DF5D9746FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1080" yWindow="105" windowWidth="13830" windowHeight="11385" xr2:uid="{22AB6EF4-E965-4C31-9910-FF08EC863FED}"/>
+    <workbookView xWindow="11130" yWindow="1455" windowWidth="15540" windowHeight="11385" xr2:uid="{22AB6EF4-E965-4C31-9910-FF08EC863FED}"/>
   </bookViews>
   <sheets>
     <sheet name="통합데이터" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
   <si>
     <t>RecipeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +593,10 @@
   </si>
   <si>
     <t>40분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간식/분식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,10 +1015,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273394D7-9FF2-452B-B24F-5A91395329CF}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1070,7 +1074,7 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>83</v>
@@ -1102,7 +1106,7 @@
         <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
         <v>95</v>
@@ -1193,7 +1197,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="132">
+    <row r="6" spans="1:12" ht="115.5">
       <c r="A6">
         <v>17</v>
       </c>
